--- a/SAO_MARCOS.xlsx
+++ b/SAO_MARCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F4E9D7-B0E2-4AC9-BA83-836CBE6B9577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0842FA7F-2CC6-4863-9315-17FD7F0DC5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,7 +1197,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{EDFDEF3A-F35F-40AE-999B-469971C6C969}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{EFEAC569-9E72-4ACA-899F-AE9240D285F3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1227,10 +1227,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A46323-01E7-4896-B382-657AA394698B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9403748-3679-444A-A293-62F985A660D7}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1268,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75925767-6C67-4803-9463-C64A9A761D39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529F1006-E2E8-424C-A08C-9C755BB08BB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A807C8-CC19-4509-9260-A0EC3A511ED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1890587A-48FC-4C81-A3A9-DBC1273492C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6353AC17-1ABB-B193-D4C0-5AC038CA3A9C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB0905D-2434-7B7A-B9D2-6272AE309357}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1399,7 +1399,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36469E0B-FFF9-DE25-225B-DF2CFC2C7925}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84F0A02-1C7D-1645-44C5-213473CECCC2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBAABC5-4EAF-5932-17CF-F9E241F9F976}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A785B58F-6A95-8C70-01C3-FA1CBA975957}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1449,7 +1449,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB5C5D6-B612-9B0B-3C2C-82DB5CD03869}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC64D7DB-79A1-A85B-1FBC-B954B2E10BFA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1480,7 +1480,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4667101C-E2FF-D06A-57F4-756E2EE38CD9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0AE74A-BF1F-A55F-7F62-238F8E347399}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1523,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8E171D-47C9-4F05-B698-4FA6CDEFDBA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F8F8BF-E90B-4033-9E79-F212DDE5413D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1561,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03912699-3348-4F33-940F-4B0675319272}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6092418-F733-454C-A503-9737933AC6A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92CA0CA-5E44-41DD-A7F6-391E2B8F2733}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5B266D-FFE4-408C-9AE1-CEFECAC2F08E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC88EE2-434E-476B-82C2-E33B098621DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7E44E1-4130-40BB-8B3E-CADCDBC2D083}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_MARCOS.xlsx
+++ b/SAO_MARCOS.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0842FA7F-2CC6-4863-9315-17FD7F0DC5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{521C87FC-9F11-4AB7-A048-9B81F5E62D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="297">
   <si>
     <t>COMARCA</t>
   </si>
@@ -917,15 +916,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO MARCOS</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,27 +1167,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{EFEAC569-9E72-4ACA-899F-AE9240D285F3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5D05B761-AB5F-43F1-A652-2DCD91F04F76}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1227,10 +1202,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9403748-3679-444A-A293-62F985A660D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740F1AD5-0813-47FE-B57E-AFD33051845A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529F1006-E2E8-424C-A08C-9C755BB08BB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D940DA6C-EAC8-4435-9A68-C2FADC6F857A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1890587A-48FC-4C81-A3A9-DBC1273492C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07B05C1-FE89-43C6-A03E-AC1BE1641CB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1325,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB0905D-2434-7B7A-B9D2-6272AE309357}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F6437F-2E1A-B71F-6CC0-F46D7F097567}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1399,7 +1374,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84F0A02-1C7D-1645-44C5-213473CECCC2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D00A48-DCE2-FCFC-9409-A6D30BA853D3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1393,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A785B58F-6A95-8C70-01C3-FA1CBA975957}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29B835B-830D-CB10-C741-248C100FF3B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1449,7 +1424,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC64D7DB-79A1-A85B-1FBC-B954B2E10BFA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3F9621-E8DF-55F5-804B-6439E1AD1EA5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1480,7 +1455,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0AE74A-BF1F-A55F-7F62-238F8E347399}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E91949-8F4D-7061-151D-721D80982B0F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1498,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F8F8BF-E90B-4033-9E79-F212DDE5413D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75903522-D94A-4DC7-A00F-6CB8B730AE2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1536,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6092418-F733-454C-A503-9737933AC6A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F457D30F-7BE6-431A-9400-28864A087DEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1579,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5B266D-FFE4-408C-9AE1-CEFECAC2F08E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88A9931-293A-4632-925C-F5C616C12075}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7E44E1-4130-40BB-8B3E-CADCDBC2D083}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E3908-4167-4F5D-8034-3F18A0B33171}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1929,98 +1904,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5449,52 +5424,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="31">
-        <v>5</v>
-      </c>
-      <c r="C2" s="29">
-        <v>3.3064409469646871E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_MARCOS.xlsx
+++ b/SAO_MARCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{521C87FC-9F11-4AB7-A048-9B81F5E62D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE9037BC-22C5-4B6E-89BC-1ADACDD1711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{5D05B761-AB5F-43F1-A652-2DCD91F04F76}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C8E25B3C-1C07-4A90-B997-FCBB94D13EB8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,10 +1202,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740F1AD5-0813-47FE-B57E-AFD33051845A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAF90FA-6035-42F9-8DB9-2AAFD8D27A16}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D940DA6C-EAC8-4435-9A68-C2FADC6F857A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D707D1F7-2D33-4C46-A68F-70059C0016EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07B05C1-FE89-43C6-A03E-AC1BE1641CB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539D6B8B-20D2-4FCE-A726-21A04D96DC64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F6437F-2E1A-B71F-6CC0-F46D7F097567}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF2C8B9-6DF6-6F9A-8C72-480F2EBB5AA6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D00A48-DCE2-FCFC-9409-A6D30BA853D3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160A7A07-CBBB-AA04-46C3-0E3CA188A6A8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29B835B-830D-CB10-C741-248C100FF3B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B187F89-A2B7-7169-73B1-16A135AA8D5C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1424,7 +1424,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3F9621-E8DF-55F5-804B-6439E1AD1EA5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985A7704-C8BE-B90B-9661-7816730A49F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E91949-8F4D-7061-151D-721D80982B0F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B08FAF-3C58-B4F4-5BBB-9306673DB70B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75903522-D94A-4DC7-A00F-6CB8B730AE2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DA0916-E4A6-4B9A-A39A-336086173DE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F457D30F-7BE6-431A-9400-28864A087DEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327E5E59-3A6F-4D59-AC3F-A624F568BDDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,50 +1561,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88A9931-293A-4632-925C-F5C616C12075}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1892,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E3908-4167-4F5D-8034-3F18A0B33171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B99175A-69B7-42CD-B864-779FF46AF85C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
